--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3236.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3236.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.496316850463774</v>
+        <v>1.342868566513062</v>
       </c>
       <c r="B1">
-        <v>2.729213098234006</v>
+        <v>1.401240110397339</v>
       </c>
       <c r="C1">
-        <v>3.35944483175265</v>
+        <v>1.198653101921082</v>
       </c>
       <c r="D1">
-        <v>3.988248037637131</v>
+        <v>1.26664936542511</v>
       </c>
       <c r="E1">
-        <v>1.296981913880224</v>
+        <v>0.9988322257995605</v>
       </c>
     </row>
   </sheetData>
